--- a/Output/Bull_Trout_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
+++ b/Output/Bull_Trout_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
@@ -568,12 +568,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -914,13 +914,13 @@
         <v>4</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U6">
-        <v>0.6222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V6">
         <v>5</v>
@@ -928,14 +928,9 @@
       <c r="W6">
         <v>1</v>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1018,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1106,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Icing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1204,12 +1199,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Riparian</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1297,29 +1292,29 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mad River Lower 04</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1338,13 +1333,13 @@
         </is>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>5</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -1353,34 +1348,34 @@
         <v>5</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P11">
         <v>5</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U11">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="V11">
         <v>5</v>
@@ -1390,12 +1385,12 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>Icing,Off-Channel- Side-Channels</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1483,12 +1478,12 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1576,12 +1571,12 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1669,12 +1664,12 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1762,12 +1757,12 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1850,12 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1948,12 +1943,12 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2041,12 +2036,12 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2118,13 +2113,13 @@
         <v>1</v>
       </c>
       <c r="S19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U19">
-        <v>0.5111111111111111</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V19">
         <v>5</v>
@@ -2134,12 +2129,12 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2208,13 +2203,13 @@
         <v>3</v>
       </c>
       <c r="S20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U20">
-        <v>0.6444444444444445</v>
+        <v>0.6</v>
       </c>
       <c r="V20">
         <v>5</v>
@@ -2222,9 +2217,14 @@
       <c r="W20">
         <v>1</v>
       </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Temperature-Rearing</t>
+        </is>
+      </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>

--- a/Output/Bull_Trout_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
+++ b/Output/Bull_Trout_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,7 +480,12 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>unacceptable_and_at_risk_1_3_indiv_habitat_attributes</t>
+          <t>at_risk_2_or_3_indiv_habitat_attributes</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>unacceptable_AND_at_risk_1_to_3_indiv_habitat_attributes</t>
         </is>
       </c>
     </row>
@@ -573,6 +578,11 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -666,6 +676,11 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
+          <t>Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
           <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -757,6 +772,11 @@
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -845,6 +865,11 @@
           <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -933,6 +958,11 @@
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1021,6 +1051,11 @@
           <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1111,6 +1146,11 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -1204,6 +1244,11 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -1297,6 +1342,11 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
+          <t>CoarseSubstrate,Riparian</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
@@ -1304,7 +1354,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1336,16 +1386,16 @@
         <v>3</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <v>5</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>3</v>
@@ -1354,28 +1404,28 @@
         <v>3</v>
       </c>
       <c r="N11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S11">
         <v>1</v>
       </c>
       <c r="T11">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="U11">
-        <v>0.8</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V11">
         <v>5</v>
@@ -1385,19 +1435,24 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1482,6 +1537,11 @@
         </is>
       </c>
       <c r="Y12" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -1490,7 +1550,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1575,6 +1635,11 @@
         </is>
       </c>
       <c r="Y13" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -1583,7 +1648,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1612,49 +1677,49 @@
         </is>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>3</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <v>5</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>3</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P14">
         <v>3</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S14">
         <v>1</v>
       </c>
       <c r="T14">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="U14">
-        <v>0.5555555555555556</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V14">
         <v>5</v>
@@ -1664,10 +1729,15 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -1676,7 +1746,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1761,6 +1831,11 @@
         </is>
       </c>
       <c r="Y15" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -1769,7 +1844,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1798,16 +1873,16 @@
         </is>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>3</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1816,31 +1891,31 @@
         <v>3</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O16">
         <v>3</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q16">
         <v>1</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S16">
         <v>1</v>
       </c>
       <c r="T16">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U16">
-        <v>0.4222222222222222</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V16">
         <v>5</v>
@@ -1850,19 +1925,24 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1947,6 +2027,11 @@
         </is>
       </c>
       <c r="Y17" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
         <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -1955,7 +2040,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2040,6 +2125,11 @@
         </is>
       </c>
       <c r="Y18" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
         <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -2048,7 +2138,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2089,10 +2179,10 @@
         <v>3</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M19">
         <v>3</v>
@@ -2104,22 +2194,19 @@
         <v>3</v>
       </c>
       <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="U19">
-        <v>0.4666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="V19">
         <v>5</v>
@@ -2129,100 +2216,15 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Nason Creek Lower 15</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Lower Nason Creek</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>5</v>
-      </c>
-      <c r="M20">
-        <v>3</v>
-      </c>
-      <c r="N20">
-        <v>3</v>
-      </c>
-      <c r="O20">
-        <v>3</v>
-      </c>
-      <c r="P20">
-        <v>3</v>
-      </c>
-      <c r="R20">
-        <v>3</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>27</v>
-      </c>
-      <c r="U20">
-        <v>0.6</v>
-      </c>
-      <c r="V20">
-        <v>5</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
         <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>

--- a/Output/Bull_Trout_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
+++ b/Output/Bull_Trout_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,7 +492,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Beaver Creek Lower 09</t>
+          <t>Beaver Creek North Fork 01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -521,49 +521,49 @@
         </is>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
         <v>2</v>
       </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2">
-        <v>3</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>3</v>
-      </c>
-      <c r="Q2">
-        <v>3</v>
-      </c>
-      <c r="R2">
-        <v>3</v>
-      </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
       <c r="T2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="U2">
-        <v>0.5333333333333333</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V2">
         <v>5</v>
@@ -578,29 +578,29 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Beaver Creek North Fork 01</t>
+          <t>Entiat River Lake 01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Upper Beaver Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -634,34 +634,34 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M3">
         <v>5</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q3">
         <v>3</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U3">
-        <v>0.7111111111111111</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V3">
         <v>5</v>
@@ -671,24 +671,24 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Entiat River Potato 07</t>
+          <t>Entiat River Lake 02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -717,25 +717,25 @@
         </is>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <v>5</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -744,22 +744,22 @@
         <v>5</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>5</v>
       </c>
       <c r="R4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S4">
         <v>3</v>
       </c>
       <c r="T4">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="U4">
-        <v>0.7111111111111111</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V4">
         <v>5</v>
@@ -767,21 +767,26 @@
       <c r="W4">
         <v>1</v>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Entiat River Lake 04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -791,7 +796,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -810,49 +815,49 @@
         </is>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <v>5</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>3</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5">
         <v>3</v>
       </c>
       <c r="O5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S5">
         <v>3</v>
       </c>
       <c r="T5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U5">
-        <v>0.7333333333333333</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V5">
         <v>5</v>
@@ -860,21 +865,26 @@
       <c r="W5">
         <v>1</v>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Entiat River Preston 01</t>
+          <t>Entiat River Lake 08</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -884,7 +894,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -903,25 +913,25 @@
         </is>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -930,22 +940,22 @@
         <v>3</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q6">
         <v>5</v>
       </c>
       <c r="R6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="U6">
-        <v>0.6666666666666666</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V6">
         <v>5</v>
@@ -953,21 +963,26 @@
       <c r="W6">
         <v>1</v>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Cover-Wood</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Entiat River Lake 09</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -977,7 +992,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -996,49 +1011,49 @@
         </is>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7">
         <v>3</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U7">
-        <v>0.7333333333333333</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V7">
         <v>5</v>
@@ -1046,31 +1061,36 @@
       <c r="W7">
         <v>1</v>
       </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Cover-Wood</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lake Creek Methow 01</t>
+          <t>Entiat River Lake 10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lake Creek (Methow)</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1089,49 +1109,49 @@
         </is>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
         <v>2</v>
       </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8">
-        <v>3</v>
-      </c>
-      <c r="Q8">
-        <v>3</v>
-      </c>
-      <c r="R8">
-        <v>3</v>
-      </c>
-      <c r="S8">
-        <v>3</v>
-      </c>
       <c r="T8">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="U8">
-        <v>0.5333333333333333</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V8">
         <v>5</v>
@@ -1141,39 +1161,39 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lake Creek Methow 02</t>
+          <t>Entiat River Potato 07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Lake Creek (Methow)</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1190,16 +1210,16 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>3</v>
@@ -1211,25 +1231,25 @@
         <v>3</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S9">
         <v>3</v>
       </c>
       <c r="T9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="U9">
-        <v>0.4888888888888889</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V9">
         <v>5</v>
@@ -1237,26 +1257,21 @@
       <c r="W9">
         <v>1</v>
       </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Riparian</t>
-        </is>
-      </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mad River Lower 01</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1266,7 +1281,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1285,49 +1300,49 @@
         </is>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P10">
         <v>3</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T10">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="U10">
-        <v>0.4444444444444444</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V10">
         <v>5</v>
@@ -1335,36 +1350,31 @@
       <c r="W10">
         <v>1</v>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Entiat River Preston 01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1407,25 +1417,25 @@
         <v>3</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P11">
         <v>3</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T11">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="U11">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V11">
         <v>5</v>
@@ -1433,36 +1443,31 @@
       <c r="W11">
         <v>1</v>
       </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1493,7 +1498,7 @@
         <v>5</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L12">
         <v>3</v>
@@ -1505,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P12">
         <v>3</v>
@@ -1517,13 +1522,13 @@
         <v>3</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T12">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="U12">
-        <v>0.5555555555555556</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V12">
         <v>5</v>
@@ -1531,36 +1536,31 @@
       <c r="W12">
         <v>1</v>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1579,25 +1579,25 @@
         </is>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J13">
         <v>5</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>3</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13">
         <v>3</v>
@@ -1615,13 +1615,13 @@
         <v>3</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T13">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U13">
-        <v>0.5555555555555556</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V13">
         <v>5</v>
@@ -1631,34 +1631,34 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Entiat River Preston 05</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1677,13 +1677,13 @@
         </is>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -1695,31 +1695,31 @@
         <v>3</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T14">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="U14">
-        <v>0.4222222222222222</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V14">
         <v>5</v>
@@ -1729,34 +1729,34 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Mad River Lower 01</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1778,19 +1778,19 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1799,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P15">
         <v>3</v>
@@ -1811,13 +1811,13 @@
         <v>2</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U15">
-        <v>0.4222222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V15">
         <v>5</v>
@@ -1827,24 +1827,24 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,Riparian</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1882,10 +1882,10 @@
         <v>3</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>3</v>
@@ -1897,25 +1897,25 @@
         <v>3</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S16">
         <v>1</v>
       </c>
       <c r="T16">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="U16">
-        <v>0.4666666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V16">
         <v>5</v>
@@ -1925,24 +1925,24 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1980,10 +1980,10 @@
         <v>3</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>3</v>
@@ -1995,25 +1995,25 @@
         <v>3</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
       <c r="T17">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="U17">
-        <v>0.4666666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V17">
         <v>5</v>
@@ -2023,24 +2023,24 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2078,10 +2078,10 @@
         <v>3</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>3</v>
@@ -2093,25 +2093,25 @@
         <v>3</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S18">
         <v>1</v>
       </c>
       <c r="T18">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="U18">
-        <v>0.4666666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V18">
         <v>5</v>
@@ -2121,110 +2121,600 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Nason Creek Lower 09</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>19</v>
+      </c>
+      <c r="U19">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="V19">
+        <v>5</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 10</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>19</v>
+      </c>
+      <c r="U20">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="V20">
+        <v>5</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 12</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>21</v>
+      </c>
+      <c r="U21">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="V21">
+        <v>5</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 13</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>21</v>
+      </c>
+      <c r="U22">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="V22">
+        <v>5</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 14</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>21</v>
+      </c>
+      <c r="U23">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="V23">
+        <v>5</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>Nason Creek Lower 15</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Wenatchee</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Lower Nason Creek</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>5</v>
-      </c>
-      <c r="M19">
-        <v>3</v>
-      </c>
-      <c r="N19">
-        <v>3</v>
-      </c>
-      <c r="O19">
-        <v>3</v>
-      </c>
-      <c r="P19">
-        <v>3</v>
-      </c>
-      <c r="R19">
-        <v>3</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
         <v>27</v>
       </c>
-      <c r="U19">
+      <c r="U24">
         <v>0.6</v>
       </c>
-      <c r="V19">
-        <v>5</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19" t="inlineStr">
+      <c r="V24">
+        <v>5</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24" t="inlineStr">
         <is>
           <t>Temperature-Rearing</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="Y24" t="inlineStr">
         <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="Z24" t="inlineStr">
         <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>

--- a/Output/Bull_Trout_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
+++ b/Output/Bull_Trout_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,17 +492,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Beaver Creek North Fork 01</t>
+          <t>Entiat River Lake 01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Upper Beaver Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -536,34 +536,34 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M2">
         <v>5</v>
       </c>
       <c r="N2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q2">
         <v>3</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U2">
-        <v>0.7111111111111111</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V2">
         <v>5</v>
@@ -573,24 +573,24 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Entiat River Lake 01</t>
+          <t>Entiat River Lake 02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>5</v>
@@ -637,7 +637,7 @@
         <v>3</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>3</v>
@@ -646,22 +646,22 @@
         <v>5</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S3">
         <v>3</v>
       </c>
       <c r="T3">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="U3">
-        <v>0.7555555555555555</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V3">
         <v>5</v>
@@ -671,24 +671,24 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Off-Channel-Floodplain</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Entiat River Lake 02</t>
+          <t>Entiat River Lake 07</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -717,49 +717,49 @@
         </is>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
         <v>2</v>
       </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>5</v>
-      </c>
-      <c r="R4">
-        <v>3</v>
-      </c>
-      <c r="S4">
-        <v>3</v>
-      </c>
       <c r="T4">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="U4">
-        <v>0.5777777777777777</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V4">
         <v>5</v>
@@ -769,24 +769,24 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Entiat River Lake 04</t>
+          <t>Entiat River Lake 08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M5">
         <v>5</v>
@@ -839,7 +839,7 @@
         <v>3</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P5">
         <v>5</v>
@@ -851,13 +851,13 @@
         <v>5</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U5">
-        <v>0.6888888888888889</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V5">
         <v>5</v>
@@ -867,24 +867,24 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Entiat River Lake 08</t>
+          <t>Entiat River Lake 09</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -982,7 +982,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Entiat River Lake 09</t>
+          <t>Entiat River Lake 10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1080,7 +1080,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Entiat River Lake 10</t>
+          <t>Entiat River Preston 01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1109,25 +1109,25 @@
         </is>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8">
         <v>3</v>
@@ -1136,22 +1136,22 @@
         <v>3</v>
       </c>
       <c r="P8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q8">
         <v>5</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T8">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U8">
-        <v>0.7555555555555555</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V8">
         <v>5</v>
@@ -1159,26 +1159,21 @@
       <c r="W8">
         <v>1</v>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>Cover-Wood</t>
-        </is>
-      </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Entiat River Potato 07</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1188,7 +1183,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1219,7 +1214,7 @@
         <v>5</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L9">
         <v>3</v>
@@ -1237,19 +1232,19 @@
         <v>3</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S9">
         <v>3</v>
       </c>
       <c r="T9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U9">
-        <v>0.7111111111111111</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V9">
         <v>5</v>
@@ -1259,19 +1254,19 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1281,7 +1276,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1300,31 +1295,31 @@
         </is>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J10">
         <v>5</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>3</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10">
         <v>3</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <v>3</v>
@@ -1339,10 +1334,10 @@
         <v>3</v>
       </c>
       <c r="T10">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U10">
-        <v>0.7333333333333333</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V10">
         <v>5</v>
@@ -1350,21 +1345,26 @@
       <c r="W10">
         <v>1</v>
       </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Entiat River Preston 01</t>
+          <t>Entiat River Preston 05</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1396,46 +1396,46 @@
         <v>3</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11">
         <v>5</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>3</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11">
         <v>3</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q11">
         <v>5</v>
       </c>
       <c r="R11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S11">
         <v>3</v>
       </c>
       <c r="T11">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="U11">
-        <v>0.6666666666666666</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V11">
         <v>5</v>
@@ -1443,21 +1443,26 @@
       <c r="W11">
         <v>1</v>
       </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Cover-Wood</t>
+        </is>
+      </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Mad River Lower 01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1467,7 +1472,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1486,49 +1491,49 @@
         </is>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P12">
         <v>3</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T12">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="U12">
-        <v>0.7333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V12">
         <v>5</v>
@@ -1536,21 +1541,26 @@
       <c r="W12">
         <v>1</v>
       </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Riparian</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Mad River Lower 03</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1560,7 +1570,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1579,43 +1589,43 @@
         </is>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <v>5</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q13">
         <v>3</v>
       </c>
       <c r="R13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T13">
         <v>29</v>
@@ -1631,34 +1641,34 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Entiat River Preston 05</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1680,46 +1690,46 @@
         <v>3</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14">
         <v>5</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>3</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14">
         <v>3</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="U14">
-        <v>0.7555555555555555</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V14">
         <v>5</v>
@@ -1729,34 +1739,34 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mad River Lower 01</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1775,28 +1785,28 @@
         </is>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -1805,19 +1815,19 @@
         <v>3</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="U15">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V15">
         <v>5</v>
@@ -1827,24 +1837,24 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1942,7 +1952,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1971,49 +1981,49 @@
         </is>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>3</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17">
         <v>5</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <v>3</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P17">
         <v>3</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
       <c r="T17">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="U17">
-        <v>0.5555555555555556</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V17">
         <v>5</v>
@@ -2023,12 +2033,12 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2040,7 +2050,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2069,49 +2079,49 @@
         </is>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18">
         <v>5</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>3</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P18">
         <v>3</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S18">
         <v>1</v>
       </c>
       <c r="T18">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="U18">
-        <v>0.5555555555555556</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V18">
         <v>5</v>
@@ -2121,12 +2131,12 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2138,7 +2148,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2167,16 +2177,16 @@
         </is>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19">
         <v>3</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2185,31 +2195,31 @@
         <v>3</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O19">
         <v>3</v>
       </c>
       <c r="P19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q19">
         <v>1</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U19">
-        <v>0.4222222222222222</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V19">
         <v>5</v>
@@ -2219,24 +2229,24 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2265,16 +2275,16 @@
         </is>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <v>3</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -2283,31 +2293,31 @@
         <v>3</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O20">
         <v>3</v>
       </c>
       <c r="P20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q20">
         <v>1</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S20">
         <v>1</v>
       </c>
       <c r="T20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U20">
-        <v>0.4222222222222222</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V20">
         <v>5</v>
@@ -2317,24 +2327,24 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2432,7 +2442,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2473,10 +2483,10 @@
         <v>3</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M22">
         <v>3</v>
@@ -2488,22 +2498,19 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S22">
         <v>1</v>
       </c>
       <c r="T22">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="U22">
-        <v>0.4666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="V22">
         <v>5</v>
@@ -2513,208 +2520,15 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Nason Creek Lower 14</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Lower Nason Creek</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-      <c r="J23">
-        <v>3</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
-      <c r="M23">
-        <v>3</v>
-      </c>
-      <c r="N23">
-        <v>3</v>
-      </c>
-      <c r="O23">
-        <v>3</v>
-      </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="R23">
-        <v>1</v>
-      </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
-      <c r="T23">
-        <v>21</v>
-      </c>
-      <c r="U23">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="V23">
-        <v>5</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Nason Creek Lower 15</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Lower Nason Creek</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-      <c r="J24">
-        <v>3</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>5</v>
-      </c>
-      <c r="M24">
-        <v>3</v>
-      </c>
-      <c r="N24">
-        <v>3</v>
-      </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-      <c r="P24">
-        <v>3</v>
-      </c>
-      <c r="R24">
-        <v>3</v>
-      </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
-      <c r="T24">
-        <v>27</v>
-      </c>
-      <c r="U24">
-        <v>0.6</v>
-      </c>
-      <c r="V24">
-        <v>5</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
         <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>

--- a/Output/Bull_Trout_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
+++ b/Output/Bull_Trout_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
@@ -492,7 +492,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Entiat River Lake 01</t>
+          <t>Entiat River Lake 02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -539,31 +539,31 @@
         <v>3</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>5</v>
       </c>
       <c r="P2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>3</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T2">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="U2">
-        <v>0.7555555555555555</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V2">
         <v>5</v>
@@ -573,24 +573,24 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Entiat River Lake 02</t>
+          <t>Entiat River Lake 03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -619,76 +619,76 @@
         </is>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3">
         <v>5</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>3</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>5</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R3">
         <v>3</v>
       </c>
       <c r="S3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T3">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="U3">
-        <v>0.5777777777777777</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V3">
         <v>5</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Entiat River Lake 07</t>
+          <t>Entiat River Lake 04</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -732,34 +732,34 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M4">
         <v>5</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>5</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T4">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U4">
-        <v>0.7111111111111111</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V4">
         <v>5</v>
@@ -769,24 +769,24 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Entiat River Lake 08</t>
+          <t>Entiat River Lake 10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -836,7 +836,7 @@
         <v>5</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <v>3</v>
@@ -851,40 +851,40 @@
         <v>5</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U5">
-        <v>0.7555555555555555</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V5">
         <v>5</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Entiat River Lake 09</t>
+          <t>Entiat River Potato 05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -925,7 +925,7 @@
         <v>5</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -934,55 +934,55 @@
         <v>5</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U6">
-        <v>0.7555555555555555</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V6">
         <v>5</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Entiat River Lake 10</t>
+          <t>Entiat River Potato 07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1011,49 +1011,49 @@
         </is>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T7">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U7">
-        <v>0.7555555555555555</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V7">
         <v>5</v>
@@ -1063,24 +1063,24 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Entiat River Preston 01</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1121,7 +1121,7 @@
         <v>5</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L8">
         <v>3</v>
@@ -1130,28 +1130,28 @@
         <v>3</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P8">
         <v>3</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S8">
         <v>3</v>
       </c>
       <c r="T8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U8">
-        <v>0.6666666666666666</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V8">
         <v>5</v>
@@ -1159,21 +1159,26 @@
       <c r="W8">
         <v>1</v>
       </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Off-Channel-Side-Channels</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Entiat River Preston 01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1214,7 +1219,7 @@
         <v>5</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>3</v>
@@ -1223,10 +1228,10 @@
         <v>3</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P9">
         <v>3</v>
@@ -1241,10 +1246,10 @@
         <v>3</v>
       </c>
       <c r="T9">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="U9">
-        <v>0.7333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="V9">
         <v>5</v>
@@ -1252,21 +1257,26 @@
       <c r="W9">
         <v>1</v>
       </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Off-Channel-Side-Channels</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1295,31 +1305,31 @@
         </is>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <v>5</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L10">
         <v>3</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <v>3</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P10">
         <v>3</v>
@@ -1334,37 +1344,32 @@
         <v>3</v>
       </c>
       <c r="T10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U10">
-        <v>0.6444444444444445</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V10">
         <v>5</v>
       </c>
       <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
-        </is>
+        <v>3</v>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Entiat River Preston 05</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1374,7 +1379,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1393,13 +1398,13 @@
         </is>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>5</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -1414,28 +1419,28 @@
         <v>5</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T11">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U11">
-        <v>0.7555555555555555</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V11">
         <v>5</v>
@@ -1445,17 +1450,17 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -1518,22 +1523,22 @@
         <v>1</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>1</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S12">
         <v>5</v>
       </c>
       <c r="T12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U12">
-        <v>0.4444444444444444</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V12">
         <v>5</v>
@@ -1543,12 +1548,12 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Riparian</t>
+          <t>CoarseSubstrate</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1560,17 +1565,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mad River Lower 03</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1598,60 +1603,60 @@
         <v>4</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M13">
         <v>3</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q13">
         <v>3</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="U13">
-        <v>0.6444444444444445</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V13">
         <v>5</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1708,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1717,19 +1722,19 @@
         <v>3</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S14">
         <v>1</v>
       </c>
       <c r="T14">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U14">
-        <v>0.5555555555555556</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V14">
         <v>5</v>
@@ -1739,12 +1744,12 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -1806,7 +1811,7 @@
         <v>3</v>
       </c>
       <c r="N15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -1824,10 +1829,10 @@
         <v>1</v>
       </c>
       <c r="T15">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="U15">
-        <v>0.5555555555555556</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V15">
         <v>5</v>
@@ -1837,12 +1842,12 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -1904,7 +1909,7 @@
         <v>3</v>
       </c>
       <c r="N16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -1922,10 +1927,10 @@
         <v>1</v>
       </c>
       <c r="T16">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="U16">
-        <v>0.5555555555555556</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V16">
         <v>5</v>
@@ -1935,12 +1940,12 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2106,22 +2111,22 @@
         <v>3</v>
       </c>
       <c r="P18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S18">
         <v>1</v>
       </c>
       <c r="T18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U18">
-        <v>0.4222222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="V18">
         <v>5</v>
@@ -2131,12 +2136,12 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2195,10 +2200,10 @@
         <v>3</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O19">
         <v>3</v>
@@ -2216,10 +2221,10 @@
         <v>1</v>
       </c>
       <c r="T19">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U19">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V19">
         <v>5</v>
@@ -2229,12 +2234,12 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2293,10 +2298,10 @@
         <v>3</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O20">
         <v>3</v>
@@ -2314,10 +2319,10 @@
         <v>1</v>
       </c>
       <c r="T20">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U20">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V20">
         <v>5</v>
@@ -2327,12 +2332,12 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2391,13 +2396,13 @@
         <v>3</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -2412,10 +2417,10 @@
         <v>1</v>
       </c>
       <c r="T21">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="U21">
-        <v>0.4666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V21">
         <v>5</v>
@@ -2425,12 +2430,12 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
